--- a/sujet_tp/sujet_tp/src/output/save_clustering__sift_rbm_kmeans.xlsx
+++ b/sujet_tp/sujet_tp/src/output/save_clustering__sift_rbm_kmeans.xlsx
@@ -465,13 +465,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2.229173183441162</v>
+        <v>20.1203727722168</v>
       </c>
       <c r="C2" t="n">
-        <v>53.53237152099609</v>
+        <v>-3.176541090011597</v>
       </c>
       <c r="D2" t="n">
-        <v>-37.64983367919922</v>
+        <v>-35.00719833374023</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-16.26999664306641</v>
+        <v>71.60810852050781</v>
       </c>
       <c r="C3" t="n">
-        <v>30.22195053100586</v>
+        <v>20.86768531799316</v>
       </c>
       <c r="D3" t="n">
-        <v>-116.190544128418</v>
+        <v>-15.71980571746826</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -505,13 +505,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-69.53936004638672</v>
+        <v>105.5733871459961</v>
       </c>
       <c r="C4" t="n">
-        <v>71.85635375976562</v>
+        <v>-32.46940612792969</v>
       </c>
       <c r="D4" t="n">
-        <v>-155.9873962402344</v>
+        <v>0.4298132359981537</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-68.75215148925781</v>
+        <v>80.78330230712891</v>
       </c>
       <c r="C5" t="n">
-        <v>-87.59015655517578</v>
+        <v>38.51088333129883</v>
       </c>
       <c r="D5" t="n">
-        <v>-130.6045684814453</v>
+        <v>42.19351577758789</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
@@ -545,13 +545,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12.2304744720459</v>
+        <v>-18.62998008728027</v>
       </c>
       <c r="C6" t="n">
-        <v>15.40938472747803</v>
+        <v>-13.0540132522583</v>
       </c>
       <c r="D6" t="n">
-        <v>79.33173370361328</v>
+        <v>0.7451062202453613</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -565,13 +565,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-117.0418548583984</v>
+        <v>116.7161102294922</v>
       </c>
       <c r="C7" t="n">
-        <v>46.62067794799805</v>
+        <v>-49.14731597900391</v>
       </c>
       <c r="D7" t="n">
-        <v>-129.7792205810547</v>
+        <v>-26.5351505279541</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -585,13 +585,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-89.35821533203125</v>
+        <v>-57.22811508178711</v>
       </c>
       <c r="C8" t="n">
-        <v>68.91770935058594</v>
+        <v>-62.55036163330078</v>
       </c>
       <c r="D8" t="n">
-        <v>83.55712127685547</v>
+        <v>-56.27907943725586</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -605,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-34.33019256591797</v>
+        <v>-0.2508206963539124</v>
       </c>
       <c r="C9" t="n">
-        <v>-36.06757354736328</v>
+        <v>25.64483261108398</v>
       </c>
       <c r="D9" t="n">
-        <v>26.42766189575195</v>
+        <v>27.96646499633789</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -625,13 +625,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.47745704650879</v>
+        <v>-69.91159820556641</v>
       </c>
       <c r="C10" t="n">
-        <v>84.23265075683594</v>
+        <v>-3.251390933990479</v>
       </c>
       <c r="D10" t="n">
-        <v>240.2938537597656</v>
+        <v>77.82752990722656</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -645,13 +645,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-22.25934028625488</v>
+        <v>11.11614990234375</v>
       </c>
       <c r="C11" t="n">
-        <v>7.919194221496582</v>
+        <v>33.31980133056641</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.404327392578125</v>
+        <v>-2.721493721008301</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>35.59553909301758</v>
+        <v>-20.41369438171387</v>
       </c>
       <c r="C12" t="n">
-        <v>-189.6192169189453</v>
+        <v>78.53448486328125</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.761454105377197</v>
+        <v>-58.67698669433594</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -685,13 +685,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-129.5155334472656</v>
+        <v>123.9435195922852</v>
       </c>
       <c r="C13" t="n">
-        <v>-8.300963401794434</v>
+        <v>-15.46341896057129</v>
       </c>
       <c r="D13" t="n">
-        <v>-151.8626708984375</v>
+        <v>-25.02300071716309</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
@@ -705,13 +705,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-70.42330932617188</v>
+        <v>95.15402221679688</v>
       </c>
       <c r="C14" t="n">
-        <v>-32.37601852416992</v>
+        <v>4.858156681060791</v>
       </c>
       <c r="D14" t="n">
-        <v>-171.1778717041016</v>
+        <v>-43.32536315917969</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
@@ -725,13 +725,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.85808658599854</v>
+        <v>-62.81027603149414</v>
       </c>
       <c r="C15" t="n">
-        <v>84.90289306640625</v>
+        <v>18.99001502990723</v>
       </c>
       <c r="D15" t="n">
-        <v>176.0323333740234</v>
+        <v>46.89572143554688</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
@@ -745,13 +745,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>45.92229843139648</v>
+        <v>-4.307483673095703</v>
       </c>
       <c r="C16" t="n">
-        <v>66.67399597167969</v>
+        <v>-26.86017990112305</v>
       </c>
       <c r="D16" t="n">
-        <v>-14.94708442687988</v>
+        <v>-46.16300582885742</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
@@ -765,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-10.80514621734619</v>
+        <v>-85.71617126464844</v>
       </c>
       <c r="C17" t="n">
-        <v>46.50139236450195</v>
+        <v>0.07624296098947525</v>
       </c>
       <c r="D17" t="n">
-        <v>200.0193481445312</v>
+        <v>48.06912994384766</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -785,13 +785,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-59.16312026977539</v>
+        <v>59.83797836303711</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1774511486291885</v>
+        <v>-3.247839689254761</v>
       </c>
       <c r="D18" t="n">
-        <v>-113.6484069824219</v>
+        <v>-31.09333038330078</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
@@ -805,13 +805,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>99.26461029052734</v>
+        <v>-61.54266738891602</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.593982100486755</v>
+        <v>-45.26176452636719</v>
       </c>
       <c r="D19" t="n">
-        <v>124.7800979614258</v>
+        <v>14.01447868347168</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
@@ -825,13 +825,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.08138847351074</v>
+        <v>-36.52936553955078</v>
       </c>
       <c r="C20" t="n">
-        <v>-63.74523544311523</v>
+        <v>29.79305076599121</v>
       </c>
       <c r="D20" t="n">
-        <v>-134.7835845947266</v>
+        <v>-46.47357177734375</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
@@ -845,13 +845,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-27.25072288513184</v>
+        <v>-31.8911018371582</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.9344425201416</v>
+        <v>11.14205932617188</v>
       </c>
       <c r="D21" t="n">
-        <v>97.93627166748047</v>
+        <v>14.23176002502441</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
@@ -865,13 +865,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-12.4101619720459</v>
+        <v>66.33335876464844</v>
       </c>
       <c r="C22" t="n">
-        <v>-15.57120323181152</v>
+        <v>-16.71919441223145</v>
       </c>
       <c r="D22" t="n">
-        <v>-151.0195617675781</v>
+        <v>-6.232104301452637</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-72.15118408203125</v>
+        <v>26.91821479797363</v>
       </c>
       <c r="C23" t="n">
-        <v>-120.3797760009766</v>
+        <v>47.08642578125</v>
       </c>
       <c r="D23" t="n">
-        <v>38.65360260009766</v>
+        <v>43.69412994384766</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -905,13 +905,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-104.7170867919922</v>
+        <v>92.68975830078125</v>
       </c>
       <c r="C24" t="n">
-        <v>31.50424385070801</v>
+        <v>-28.62510871887207</v>
       </c>
       <c r="D24" t="n">
-        <v>-187.8202514648438</v>
+        <v>-30.29623794555664</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
@@ -925,13 +925,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.403887748718262</v>
+        <v>50.20752716064453</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.95405101776123</v>
+        <v>53.65263366699219</v>
       </c>
       <c r="D25" t="n">
-        <v>-69.21356964111328</v>
+        <v>2.218853950500488</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
@@ -945,13 +945,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>83.14176940917969</v>
+        <v>-43.73495483398438</v>
       </c>
       <c r="C26" t="n">
-        <v>17.69280433654785</v>
+        <v>-19.03806304931641</v>
       </c>
       <c r="D26" t="n">
-        <v>72.79999542236328</v>
+        <v>-27.23241996765137</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
@@ -965,13 +965,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>31.31020545959473</v>
+        <v>-16.64527320861816</v>
       </c>
       <c r="C27" t="n">
-        <v>20.32194900512695</v>
+        <v>11.02815628051758</v>
       </c>
       <c r="D27" t="n">
-        <v>24.35845947265625</v>
+        <v>-35.69289779663086</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-105.1446304321289</v>
+        <v>52.27930068969727</v>
       </c>
       <c r="C28" t="n">
-        <v>-89.30261993408203</v>
+        <v>32.13862609863281</v>
       </c>
       <c r="D28" t="n">
-        <v>64.08843231201172</v>
+        <v>54.64010238647461</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-87.35385131835938</v>
+        <v>-5.5515456199646</v>
       </c>
       <c r="C29" t="n">
-        <v>-93.05604553222656</v>
+        <v>66.94281005859375</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.260428905487061</v>
+        <v>31.45475196838379</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
@@ -1025,13 +1025,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-39.08583068847656</v>
+        <v>40.18233489990234</v>
       </c>
       <c r="C30" t="n">
-        <v>-38.35543441772461</v>
+        <v>29.1854248046875</v>
       </c>
       <c r="D30" t="n">
-        <v>-57.00089263916016</v>
+        <v>13.22908401489258</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
@@ -1045,13 +1045,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>50.98516082763672</v>
+        <v>42.54591369628906</v>
       </c>
       <c r="C31" t="n">
-        <v>33.37051773071289</v>
+        <v>33.99682235717773</v>
       </c>
       <c r="D31" t="n">
-        <v>-80.30731964111328</v>
+        <v>-23.82636451721191</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
@@ -1065,13 +1065,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-26.19116401672363</v>
+        <v>-0.02905411459505558</v>
       </c>
       <c r="C32" t="n">
-        <v>-97.69195556640625</v>
+        <v>35.99710845947266</v>
       </c>
       <c r="D32" t="n">
-        <v>17.48149299621582</v>
+        <v>54.36488723754883</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.38890266418457</v>
+        <v>-40.50899124145508</v>
       </c>
       <c r="C33" t="n">
-        <v>-34.37693405151367</v>
+        <v>21.12893676757812</v>
       </c>
       <c r="D33" t="n">
-        <v>76.47418212890625</v>
+        <v>-17.4185905456543</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>122.5150680541992</v>
+        <v>-67.28905487060547</v>
       </c>
       <c r="C34" t="n">
-        <v>20.71028900146484</v>
+        <v>-61.64249038696289</v>
       </c>
       <c r="D34" t="n">
-        <v>186.4096221923828</v>
+        <v>49.1755256652832</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-6.681921005249023</v>
+        <v>-25.4017219543457</v>
       </c>
       <c r="C35" t="n">
-        <v>-199.98193359375</v>
+        <v>89.49681854248047</v>
       </c>
       <c r="D35" t="n">
-        <v>-15.03917789459229</v>
+        <v>-37.76505661010742</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>103.8357009887695</v>
+        <v>-54.03842163085938</v>
       </c>
       <c r="C36" t="n">
-        <v>48.61465835571289</v>
+        <v>-43.83930587768555</v>
       </c>
       <c r="D36" t="n">
-        <v>228.8756561279297</v>
+        <v>70.87413787841797</v>
       </c>
       <c r="E36" t="n">
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>48.94134521484375</v>
+        <v>-82.69746398925781</v>
       </c>
       <c r="C37" t="n">
-        <v>37.95684051513672</v>
+        <v>-32.53864669799805</v>
       </c>
       <c r="D37" t="n">
-        <v>186.5955963134766</v>
+        <v>47.59969329833984</v>
       </c>
       <c r="E37" t="n">
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>72.11653137207031</v>
+        <v>-48.21628952026367</v>
       </c>
       <c r="C38" t="n">
-        <v>-10.5773286819458</v>
+        <v>-39.27734756469727</v>
       </c>
       <c r="D38" t="n">
-        <v>175.4417724609375</v>
+        <v>37.42953491210938</v>
       </c>
       <c r="E38" t="n">
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-20.55442428588867</v>
+        <v>14.88630867004395</v>
       </c>
       <c r="C39" t="n">
-        <v>84.61571502685547</v>
+        <v>11.14962387084961</v>
       </c>
       <c r="D39" t="n">
-        <v>5.479470729827881</v>
+        <v>-60.26161575317383</v>
       </c>
       <c r="E39" t="n">
         <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>48.10163116455078</v>
+        <v>23.22608375549316</v>
       </c>
       <c r="C40" t="n">
-        <v>16.67240524291992</v>
+        <v>-39.36279678344727</v>
       </c>
       <c r="D40" t="n">
-        <v>-175.0840911865234</v>
+        <v>-50.61545944213867</v>
       </c>
       <c r="E40" t="n">
         <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>102.3586807250977</v>
+        <v>-37.56129455566406</v>
       </c>
       <c r="C41" t="n">
-        <v>3.322744846343994</v>
+        <v>-38.01855087280273</v>
       </c>
       <c r="D41" t="n">
-        <v>14.91772651672363</v>
+        <v>-54.58626937866211</v>
       </c>
       <c r="E41" t="n">
         <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-46.7838134765625</v>
+        <v>100.6591567993164</v>
       </c>
       <c r="C42" t="n">
-        <v>21.37067794799805</v>
+        <v>1.078040599822998</v>
       </c>
       <c r="D42" t="n">
-        <v>-190.6663818359375</v>
+        <v>-7.890129089355469</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>43.61471557617188</v>
+        <v>-64.97748565673828</v>
       </c>
       <c r="C43" t="n">
-        <v>75.12162780761719</v>
+        <v>13.1984224319458</v>
       </c>
       <c r="D43" t="n">
-        <v>101.0447006225586</v>
+        <v>3.209621667861938</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/sujet_tp/sujet_tp/src/output/save_clustering__sift_rbm_kmeans.xlsx
+++ b/sujet_tp/sujet_tp/src/output/save_clustering__sift_rbm_kmeans.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20.1203727722168</v>
+        <v>-9.114908218383789</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.176541090011597</v>
+        <v>42.48202514648438</v>
       </c>
       <c r="D2" t="n">
-        <v>-35.00719833374023</v>
+        <v>45.41342163085938</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>71.60810852050781</v>
+        <v>131.7099609375</v>
       </c>
       <c r="C3" t="n">
-        <v>20.86768531799316</v>
+        <v>42.56615829467773</v>
       </c>
       <c r="D3" t="n">
-        <v>-15.71980571746826</v>
+        <v>17.60951614379883</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>105.5733871459961</v>
+        <v>219.6742248535156</v>
       </c>
       <c r="C4" t="n">
-        <v>-32.46940612792969</v>
+        <v>48.75522232055664</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4298132359981537</v>
+        <v>-7.001641750335693</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>80.78330230712891</v>
+        <v>108.2087707519531</v>
       </c>
       <c r="C5" t="n">
-        <v>38.51088333129883</v>
+        <v>-148.0330963134766</v>
       </c>
       <c r="D5" t="n">
-        <v>42.19351577758789</v>
+        <v>154.0358734130859</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-18.62998008728027</v>
+        <v>-140.5184936523438</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.0540132522583</v>
+        <v>-72.29965209960938</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7451062202453613</v>
+        <v>26.00873184204102</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>116.7161102294922</v>
+        <v>226.4686126708984</v>
       </c>
       <c r="C7" t="n">
-        <v>-49.14731597900391</v>
+        <v>15.09214210510254</v>
       </c>
       <c r="D7" t="n">
-        <v>-26.5351505279541</v>
+        <v>-86.08176422119141</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-57.22811508178711</v>
+        <v>-39.52791213989258</v>
       </c>
       <c r="C8" t="n">
-        <v>-62.55036163330078</v>
+        <v>211.0956726074219</v>
       </c>
       <c r="D8" t="n">
-        <v>-56.27907943725586</v>
+        <v>144.8811340332031</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -605,13 +605,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2508206963539124</v>
+        <v>-28.2039623260498</v>
       </c>
       <c r="C9" t="n">
-        <v>25.64483261108398</v>
+        <v>-85.27960205078125</v>
       </c>
       <c r="D9" t="n">
-        <v>27.96646499633789</v>
+        <v>17.52985954284668</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-69.91159820556641</v>
+        <v>-0.126705214381218</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.251390933990479</v>
+        <v>-23.18667984008789</v>
       </c>
       <c r="D10" t="n">
-        <v>77.82752990722656</v>
+        <v>-189.1971893310547</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.11614990234375</v>
+        <v>-77.36111450195312</v>
       </c>
       <c r="C11" t="n">
-        <v>33.31980133056641</v>
+        <v>9.487934112548828</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.721493721008301</v>
+        <v>73.42714691162109</v>
       </c>
       <c r="E11" t="n">
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-20.41369438171387</v>
+        <v>186.0565032958984</v>
       </c>
       <c r="C12" t="n">
-        <v>78.53448486328125</v>
+        <v>7.084673404693604</v>
       </c>
       <c r="D12" t="n">
-        <v>-58.67698669433594</v>
+        <v>175.0600433349609</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123.9435195922852</v>
+        <v>235.2404022216797</v>
       </c>
       <c r="C13" t="n">
-        <v>-15.46341896057129</v>
+        <v>108.9730529785156</v>
       </c>
       <c r="D13" t="n">
-        <v>-25.02300071716309</v>
+        <v>-69.78776550292969</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>95.15402221679688</v>
+        <v>160.7691955566406</v>
       </c>
       <c r="C14" t="n">
-        <v>4.858156681060791</v>
+        <v>131.5497283935547</v>
       </c>
       <c r="D14" t="n">
-        <v>-43.32536315917969</v>
+        <v>59.331298828125</v>
       </c>
       <c r="E14" t="n">
         <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-62.81027603149414</v>
+        <v>-90.27946472167969</v>
       </c>
       <c r="C15" t="n">
-        <v>18.99001502990723</v>
+        <v>-47.53834915161133</v>
       </c>
       <c r="D15" t="n">
-        <v>46.89572143554688</v>
+        <v>-164.9129333496094</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.307483673095703</v>
+        <v>-15.80253219604492</v>
       </c>
       <c r="C16" t="n">
-        <v>-26.86017990112305</v>
+        <v>66.44136047363281</v>
       </c>
       <c r="D16" t="n">
-        <v>-46.16300582885742</v>
+        <v>115.5595474243164</v>
       </c>
       <c r="E16" t="n">
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -765,13 +765,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-85.71617126464844</v>
+        <v>-22.21908950805664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07624296098947525</v>
+        <v>-86.34407806396484</v>
       </c>
       <c r="D17" t="n">
-        <v>48.06912994384766</v>
+        <v>-139.9083709716797</v>
       </c>
       <c r="E17" t="n">
         <v>7</v>
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>59.83797836303711</v>
+        <v>68.54878997802734</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.247839689254761</v>
+        <v>60.80124664306641</v>
       </c>
       <c r="D18" t="n">
-        <v>-31.09333038330078</v>
+        <v>-29.39055061340332</v>
       </c>
       <c r="E18" t="n">
         <v>8</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-61.54266738891602</v>
+        <v>-189.4615936279297</v>
       </c>
       <c r="C19" t="n">
-        <v>-45.26176452636719</v>
+        <v>23.51838302612305</v>
       </c>
       <c r="D19" t="n">
-        <v>14.01447868347168</v>
+        <v>72.38667297363281</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-36.52936553955078</v>
+        <v>-62.21467590332031</v>
       </c>
       <c r="C20" t="n">
-        <v>29.79305076599121</v>
+        <v>10.38255214691162</v>
       </c>
       <c r="D20" t="n">
-        <v>-46.47357177734375</v>
+        <v>222.2852630615234</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-31.8911018371582</v>
+        <v>-91.77382659912109</v>
       </c>
       <c r="C21" t="n">
-        <v>11.14205932617188</v>
+        <v>-54.69676208496094</v>
       </c>
       <c r="D21" t="n">
-        <v>14.23176002502441</v>
+        <v>-33.04717636108398</v>
       </c>
       <c r="E21" t="n">
         <v>9</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.33335876464844</v>
+        <v>79.41297149658203</v>
       </c>
       <c r="C22" t="n">
-        <v>-16.71919441223145</v>
+        <v>128.8041839599609</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.232104301452637</v>
+        <v>3.893932342529297</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>26.91821479797363</v>
+        <v>48.39543914794922</v>
       </c>
       <c r="C23" t="n">
-        <v>47.08642578125</v>
+        <v>-127.2065353393555</v>
       </c>
       <c r="D23" t="n">
-        <v>43.69412994384766</v>
+        <v>48.88636016845703</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>92.68975830078125</v>
+        <v>160.7084045410156</v>
       </c>
       <c r="C24" t="n">
-        <v>-28.62510871887207</v>
+        <v>61.49710083007812</v>
       </c>
       <c r="D24" t="n">
-        <v>-30.29623794555664</v>
+        <v>-76.56397247314453</v>
       </c>
       <c r="E24" t="n">
         <v>11</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>50.20752716064453</v>
+        <v>90.23119354248047</v>
       </c>
       <c r="C25" t="n">
-        <v>53.65263366699219</v>
+        <v>-38.47007369995117</v>
       </c>
       <c r="D25" t="n">
-        <v>2.218853950500488</v>
+        <v>100.5622253417969</v>
       </c>
       <c r="E25" t="n">
         <v>11</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-43.73495483398438</v>
+        <v>-208.6712036132812</v>
       </c>
       <c r="C26" t="n">
-        <v>-19.03806304931641</v>
+        <v>-38.13397979736328</v>
       </c>
       <c r="D26" t="n">
-        <v>-27.23241996765137</v>
+        <v>-39.26141357421875</v>
       </c>
       <c r="E26" t="n">
         <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-16.64527320861816</v>
+        <v>-14.18423557281494</v>
       </c>
       <c r="C27" t="n">
-        <v>11.02815628051758</v>
+        <v>59.85638809204102</v>
       </c>
       <c r="D27" t="n">
-        <v>-35.69289779663086</v>
+        <v>226.9749145507812</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>52.27930068969727</v>
+        <v>47.05351257324219</v>
       </c>
       <c r="C28" t="n">
-        <v>32.13862609863281</v>
+        <v>174.9737854003906</v>
       </c>
       <c r="D28" t="n">
-        <v>54.64010238647461</v>
+        <v>-130.0877838134766</v>
       </c>
       <c r="E28" t="n">
         <v>13</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.5515456199646</v>
+        <v>114.0549087524414</v>
       </c>
       <c r="C29" t="n">
-        <v>66.94281005859375</v>
+        <v>-121.9224395751953</v>
       </c>
       <c r="D29" t="n">
-        <v>31.45475196838379</v>
+        <v>-16.54021072387695</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>40.18233489990234</v>
+        <v>49.71977996826172</v>
       </c>
       <c r="C30" t="n">
-        <v>29.1854248046875</v>
+        <v>-37.35749435424805</v>
       </c>
       <c r="D30" t="n">
-        <v>13.22908401489258</v>
+        <v>35.68830490112305</v>
       </c>
       <c r="E30" t="n">
         <v>14</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>42.54591369628906</v>
+        <v>69.91428375244141</v>
       </c>
       <c r="C31" t="n">
-        <v>33.99682235717773</v>
+        <v>43.8001823425293</v>
       </c>
       <c r="D31" t="n">
-        <v>-23.82636451721191</v>
+        <v>72.96041870117188</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.02905411459505558</v>
+        <v>6.077980995178223</v>
       </c>
       <c r="C32" t="n">
-        <v>35.99710845947266</v>
+        <v>-133.7889862060547</v>
       </c>
       <c r="D32" t="n">
-        <v>54.36488723754883</v>
+        <v>-24.27273750305176</v>
       </c>
       <c r="E32" t="n">
         <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-40.50899124145508</v>
+        <v>-125.1364822387695</v>
       </c>
       <c r="C33" t="n">
-        <v>21.12893676757812</v>
+        <v>11.27708625793457</v>
       </c>
       <c r="D33" t="n">
-        <v>-17.4185905456543</v>
+        <v>-34.90888214111328</v>
       </c>
       <c r="E33" t="n">
         <v>15</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-67.28905487060547</v>
+        <v>-106.251579284668</v>
       </c>
       <c r="C34" t="n">
-        <v>-61.64249038696289</v>
+        <v>-231.7695159912109</v>
       </c>
       <c r="D34" t="n">
-        <v>49.1755256652832</v>
+        <v>-126.6342315673828</v>
       </c>
       <c r="E34" t="n">
         <v>16</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-25.4017219543457</v>
+        <v>-68.251708984375</v>
       </c>
       <c r="C35" t="n">
-        <v>89.49681854248047</v>
+        <v>112.4829177856445</v>
       </c>
       <c r="D35" t="n">
-        <v>-37.76505661010742</v>
+        <v>-114.0252380371094</v>
       </c>
       <c r="E35" t="n">
         <v>16</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-54.03842163085938</v>
+        <v>-29.35666465759277</v>
       </c>
       <c r="C36" t="n">
-        <v>-43.83930587768555</v>
+        <v>-209.7875823974609</v>
       </c>
       <c r="D36" t="n">
-        <v>70.87413787841797</v>
+        <v>-138.9549255371094</v>
       </c>
       <c r="E36" t="n">
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-82.69746398925781</v>
+        <v>-76.49095916748047</v>
       </c>
       <c r="C37" t="n">
-        <v>-32.53864669799805</v>
+        <v>-130.8733367919922</v>
       </c>
       <c r="D37" t="n">
-        <v>47.59969329833984</v>
+        <v>-154.5682525634766</v>
       </c>
       <c r="E37" t="n">
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-48.21628952026367</v>
+        <v>-212.4068603515625</v>
       </c>
       <c r="C38" t="n">
-        <v>-39.27734756469727</v>
+        <v>79.46620178222656</v>
       </c>
       <c r="D38" t="n">
-        <v>37.42953491210938</v>
+        <v>32.95809173583984</v>
       </c>
       <c r="E38" t="n">
         <v>18</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>14.88630867004395</v>
+        <v>-77.36430358886719</v>
       </c>
       <c r="C39" t="n">
-        <v>11.14962387084961</v>
+        <v>110.7015991210938</v>
       </c>
       <c r="D39" t="n">
-        <v>-60.26161575317383</v>
+        <v>52.34812927246094</v>
       </c>
       <c r="E39" t="n">
         <v>18</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23.22608375549316</v>
+        <v>9.223505020141602</v>
       </c>
       <c r="C40" t="n">
-        <v>-39.36279678344727</v>
+        <v>-39.49989318847656</v>
       </c>
       <c r="D40" t="n">
-        <v>-50.61545944213867</v>
+        <v>151.8543701171875</v>
       </c>
       <c r="E40" t="n">
         <v>19</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-37.56129455566406</v>
+        <v>-265.8143005371094</v>
       </c>
       <c r="C41" t="n">
-        <v>-38.01855087280273</v>
+        <v>-59.97359466552734</v>
       </c>
       <c r="D41" t="n">
-        <v>-54.58626937866211</v>
+        <v>21.12139129638672</v>
       </c>
       <c r="E41" t="n">
         <v>19</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>100.6591567993164</v>
+        <v>161.3871307373047</v>
       </c>
       <c r="C42" t="n">
-        <v>1.078040599822998</v>
+        <v>130.7350769042969</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.890129089355469</v>
+        <v>-25.65103721618652</v>
       </c>
       <c r="E42" t="n">
         <v>20</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-64.97748565673828</v>
+        <v>-176.9156494140625</v>
       </c>
       <c r="C43" t="n">
-        <v>13.1984224319458</v>
+        <v>-34.10079956054688</v>
       </c>
       <c r="D43" t="n">
-        <v>3.209621667861938</v>
+        <v>-119.0141525268555</v>
       </c>
       <c r="E43" t="n">
         <v>20</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
